--- a/Systems Theory Assignment.xlsx
+++ b/Systems Theory Assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whoiv\Downloads\Systems Theory\.git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whoiv\Downloads\Systems Theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0872A464-5584-46C7-9CF4-3E881AFA8279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C5CFCB-9ECF-400D-A26B-271A6D7A7302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{D6E2BCB9-C853-4F2D-896B-551B1200B6B6}"/>
+    <workbookView xWindow="-3060" yWindow="7410" windowWidth="6910" windowHeight="6160" xr2:uid="{D6E2BCB9-C853-4F2D-896B-551B1200B6B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,13 +56,13 @@
     <t>Ethical Concerns with Employer</t>
   </si>
   <si>
-    <t>Complicated Decision-making</t>
-  </si>
-  <si>
     <t>Snowden's Mental Health</t>
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>Complicated Decision-Making</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
@@ -467,21 +467,21 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
